--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang10/1.NhanBH/NBH221007_LapDat.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang10/1.NhanBH/NBH221007_LapDat.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2022\Thang10\1.NhanBH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhongBaoHanh\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2022\Thang10\1.NhanBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -471,6 +471,63 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -506,63 +563,6 @@
     </xf>
     <xf numFmtId="1" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -586,19 +586,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>80597</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>73269</xdr:rowOff>
+      <xdr:colOff>102577</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>43961</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>918198</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>131885</xdr:rowOff>
+      <xdr:colOff>2042902</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>205153</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="2" name="Picture 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -617,8 +617,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="80597" y="73269"/>
-          <a:ext cx="1240582" cy="696058"/>
+          <a:off x="102577" y="256442"/>
+          <a:ext cx="2343306" cy="373673"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -920,13 +920,13 @@
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19:F19"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" style="3" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="32.5703125" style="1" customWidth="1"/>
     <col min="3" max="3" width="24.85546875" style="3" customWidth="1"/>
     <col min="4" max="4" width="12.28515625" style="1" customWidth="1"/>
     <col min="5" max="5" width="11.5703125" style="1" customWidth="1"/>
@@ -935,94 +935,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="45"/>
-      <c r="B1" s="46"/>
-      <c r="C1" s="37" t="s">
+      <c r="A1" s="33"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="38"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="26"/>
     </row>
     <row r="2" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="47"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="39" t="s">
+      <c r="A2" s="35"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="40"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="28"/>
     </row>
     <row r="3" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="47"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="39" t="s">
+      <c r="A3" s="35"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="40"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="28"/>
     </row>
     <row r="4" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="49"/>
-      <c r="B4" s="50"/>
-      <c r="C4" s="41" t="s">
+      <c r="A4" s="37"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="42"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="30"/>
     </row>
     <row r="5" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="34"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="22"/>
     </row>
     <row r="6" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15"/>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="29"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="48"/>
     </row>
     <row r="7" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="44"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="32"/>
     </row>
     <row r="8" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="25"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="44"/>
     </row>
     <row r="9" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="27"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="46"/>
     </row>
     <row r="10" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
@@ -1077,26 +1077,26 @@
       <c r="F12" s="19"/>
     </row>
     <row r="13" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="30"/>
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="35" t="s">
+      <c r="A13" s="49"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="35"/>
-      <c r="F13" s="36"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="24"/>
     </row>
     <row r="14" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20" t="s">
+      <c r="C14" s="39"/>
+      <c r="D14" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="20"/>
-      <c r="F14" s="21"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="40"/>
     </row>
     <row r="15" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
@@ -1132,16 +1132,16 @@
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22" t="s">
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="22"/>
-      <c r="F19" s="23"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="42"/>
     </row>
     <row r="20" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
@@ -1169,6 +1169,14 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="A13:C13"/>
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="D13:F13"/>
     <mergeCell ref="C1:F1"/>
@@ -1177,14 +1185,6 @@
     <mergeCell ref="C4:F4"/>
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="A1:B4"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="A13:C13"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
